--- a/эксель/автаз.xlsx
+++ b/эксель/автаз.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a020ae5d501267d/Рабочий стол/КультКодСайт/эксель/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Locker\Proga\CultCode\эксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DF75460589B3ACB7284451F5D7C2A5ADEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E9F3AE-5D66-4F52-9D05-B6A484F15891}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DDBB4A-0A41-4B2C-AF92-3128757A7DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Art коробка</t>
   </si>
@@ -150,20 +150,28 @@
     <t>крутицкое подворье</t>
   </si>
   <si>
-    <t>krutskoe_podvore</t>
-  </si>
-  <si>
     <t>библиотека 124</t>
   </si>
   <si>
     <t>biblioteka_124</t>
+  </si>
+  <si>
+    <t>фото нет</t>
+  </si>
+  <si>
+    <t>2 
+(2ое фото не оч)</t>
+  </si>
+  <si>
+    <t>2
+ (2ое фото не оч)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +186,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -230,6 +245,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,190 +536,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/эксель/автаз.xlsx
+++ b/эксель/автаз.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Locker\Proga\CultCode\эксель\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Аня\OneDrive\Рабочий стол\CultCode\эксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DDBB4A-0A41-4B2C-AF92-3128757A7DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2992168-A048-460E-802E-F22715B88EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="3396" windowWidth="7620" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Art коробка</t>
   </si>
@@ -165,13 +165,19 @@
   <si>
     <t>2
  (2ое фото не оч)</t>
+  </si>
+  <si>
+    <t>РГБ им. Ленина</t>
+  </si>
+  <si>
+    <t>rgb_lenina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +200,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,11 +265,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -256,6 +300,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,20 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,43 +634,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="4">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -601,10 +690,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -612,10 +704,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -625,8 +720,11 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -634,21 +732,27 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -656,43 +760,51 @@
         <v>19</v>
       </c>
       <c r="C10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -702,30 +814,35 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -735,19 +852,23 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -757,19 +878,23 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
@@ -780,15 +905,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="18" t="s">
         <v>43</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
